--- a/downloaded_files/MDPS479_Tutorial-35699.xlsx
+++ b/downloaded_files/MDPS479_Tutorial-35699.xlsx
@@ -2004,11 +2004,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20512]20512-45-الجيزة الرئيسي Time : Wednesday(16:18)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20108]20108-60-الجيزة الرئيسي Time : Wednesday(16:18)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20512]20512-45-الجيزة الرئيسي Time : Wednesday(16:18)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20108]20108-60-الجيزة الرئيسي Time : Wednesday(16:18)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20512]20512-45-الجيزة الرئيسي Time : Wednesday(16:18)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20108]20108-60-الجيزة الرئيسي Time : Wednesday(16:18)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/MDPS479_Tutorial-35699.xlsx
+++ b/downloaded_files/MDPS479_Tutorial-35699.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mostafa Elsayed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ادهم مدحت عبدالمعز العزب هيبه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adham Medhat Abdelmoaz Heba</x:t>
   </x:si>
   <x:si>
     <x:t>1210348</x:t>
@@ -470,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1053,7 +1044,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6674789699</x:v>
+        <x:v>45912.0243352199</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1085,7 +1076,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.0243352199</x:v>
+        <x:v>45906.6649211458</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1117,7 +1108,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6649211458</x:v>
+        <x:v>45912.023521956</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1149,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.023521956</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1181,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1213,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45906.6644273495</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1245,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6644273495</x:v>
+        <x:v>45912.0230001157</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1277,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.0230001157</x:v>
+        <x:v>45906.6650795139</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1373,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6769051273</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6769051273</x:v>
+        <x:v>45906.6779978819</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6779978819</x:v>
+        <x:v>45906.6645832986</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6645832986</x:v>
+        <x:v>45912.0234185995</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.0234185995</x:v>
+        <x:v>45912.0242148148</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.0242148148</x:v>
+        <x:v>45906.6650076736</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6650076736</x:v>
+        <x:v>45906.6649344907</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6649344907</x:v>
+        <x:v>45906.6645811343</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6645811343</x:v>
+        <x:v>45906.6648501968</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6648501968</x:v>
+        <x:v>45906.6771461458</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6771461458</x:v>
+        <x:v>45906.6647589468</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6647589468</x:v>
+        <x:v>45906.6646466435</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6646466435</x:v>
+        <x:v>45906.6646581019</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6646581019</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45906.6775691319</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6775691319</x:v>
+        <x:v>45912.0232952546</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.0232952546</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1966,38 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45906.4148245023</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS479_Tutorial-35699.xlsx
+++ b/downloaded_files/MDPS479_Tutorial-35699.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>Mina Adel Maher Wasfi Nathan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نورهان عصام محمد احمد وهبه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nourhan Essam Mohamed Ahmed Wahba</x:t>
   </x:si>
   <x:si>
     <x:t>1210034</x:t>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1844,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45926.4102671643</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6775691319</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.0232952546</x:v>
+        <x:v>45906.6775691319</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45912.0232952546</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1966,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45906.4148245023</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS479_Tutorial-35699.xlsx
+++ b/downloaded_files/MDPS479_Tutorial-35699.xlsx
@@ -132,6 +132,15 @@
     <x:t>Seif el din motaz ahmed ezzat khattab</x:t>
   </x:si>
   <x:si>
+    <x:t>1220178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن عمرو إبراهيم محمد جميل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman amr</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210149</x:t>
   </x:si>
   <x:si>
@@ -186,22 +195,13 @@
     <x:t>Omar Wael Mostafa Sayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مارى مرقص جورج ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mary Morcos George Ibrahem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد اشرف محمد مصلحى زمزم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ashraf</x:t>
+    <x:t>1220271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مالك سامح اسماعيل عبدالحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Malek Sameh Esmael Abdelhameed</x:t>
   </x:si>
   <x:si>
     <x:t>1210076</x:t>
@@ -249,15 +249,6 @@
     <x:t>Mahmoud Khaled Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود مصطفى سيد امين سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Mostafa Sayed Ameen Sayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210297</x:t>
   </x:si>
   <x:si>
@@ -310,6 +301,15 @@
   </x:si>
   <x:si>
     <x:t>Mina Adel Maher Wasfi Nathan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور احمد شمس الدين محمد سالم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Ahmed Shamseldin Mohamed Salem</x:t>
   </x:si>
   <x:si>
     <x:t>1220151</x:t>
@@ -1213,7 +1213,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6644273495</x:v>
+        <x:v>45927.4146568287</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1245,7 +1245,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.0230001157</x:v>
+        <x:v>45906.6644273495</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1277,7 +1277,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45912.0230001157</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45906.6650795139</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1373,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6769051273</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6779978819</x:v>
+        <x:v>45927.4152559838</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1629,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6645811343</x:v>
+        <x:v>45906.6648501968</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6648501968</x:v>
+        <x:v>45906.6771461458</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6771461458</x:v>
+        <x:v>45906.6647589468</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6647589468</x:v>
+        <x:v>45906.6646466435</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6646466435</x:v>
+        <x:v>45906.6646581019</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6646581019</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45927.4146510417</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>

--- a/downloaded_files/MDPS479_Tutorial-35699.xlsx
+++ b/downloaded_files/MDPS479_Tutorial-35699.xlsx
@@ -258,6 +258,15 @@
     <x:t>Mahmoud Waleed Mahmoud El Shayep</x:t>
   </x:si>
   <x:si>
+    <x:t>1220144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان نزار محمد عباس احمد عبدالشافى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Nezar Mohamed Abbas Ahmed Abdelshafy</x:t>
+  </x:si>
+  <x:si>
     <x:t>4210425</x:t>
   </x:si>
   <x:si>
@@ -265,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t>Meriam Tamer Saddik Hanna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى هانى عبد الفتاح محمود العطار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Hany Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1220204</x:t>
@@ -780,7 +780,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="37.110625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.520625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1661,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6771461458</x:v>
+        <x:v>45927.9738076389</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6647589468</x:v>
+        <x:v>45906.6771461458</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>

--- a/downloaded_files/MDPS479_Tutorial-35699.xlsx
+++ b/downloaded_files/MDPS479_Tutorial-35699.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Seif el din motaz ahmed ezzat khattab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن عمرو إبراهيم محمد جميل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman amr</x:t>
   </x:si>
   <x:si>
     <x:t>1210149</x:t>
@@ -470,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1213,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4146568287</x:v>
+        <x:v>45906.6644273495</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1245,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6644273495</x:v>
+        <x:v>45912.0230001157</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1277,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.0230001157</x:v>
+        <x:v>45906.6650795139</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1373,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45927.4152559838</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4152559838</x:v>
+        <x:v>45906.6645832986</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6645832986</x:v>
+        <x:v>45912.0234185995</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.0234185995</x:v>
+        <x:v>45912.0242148148</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.0242148148</x:v>
+        <x:v>45906.6650076736</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6650076736</x:v>
+        <x:v>45906.6649344907</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6649344907</x:v>
+        <x:v>45906.6648501968</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6648501968</x:v>
+        <x:v>45927.9738076389</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.9738076389</x:v>
+        <x:v>45906.6771461458</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6771461458</x:v>
+        <x:v>45906.6646466435</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6646466435</x:v>
+        <x:v>45906.6646581019</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6646581019</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45927.4146510417</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.4146510417</x:v>
+        <x:v>45926.4102671643</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45926.4102671643</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45906.6775691319</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6775691319</x:v>
+        <x:v>45912.0232952546</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.0232952546</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1966,38 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45906.4148245023</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS479_Tutorial-35699.xlsx
+++ b/downloaded_files/MDPS479_Tutorial-35699.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1220158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أحمد هاني محمد حلمي أحمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Hany Mohamed Helmy Ahmed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210182</x:t>
   </x:si>
   <x:si>
@@ -51,15 +42,6 @@
     <x:t>ARWA MOHAMED MAHMOUD MOHAMED IBRAHIM</x:t>
   </x:si>
   <x:si>
-    <x:t>1210403</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد سامح عاطف عشيش</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Sameh Atef Eshashe</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200787</x:t>
   </x:si>
   <x:si>
@@ -69,49 +51,31 @@
     <x:t>AHMED ALY HUSSEIN SAFIAN</x:t>
   </x:si>
   <x:si>
-    <x:t>1210404</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد عماد عبدالله مصطفى البحراوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Emad AbdAllah Elbahrawi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد مصطفي السيد احمد محمد ريحان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mostafa Elsayed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210348</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيشوى بطرس انعام شحاته</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bishoy Botros Enaam Shehata</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>تقى محمد صلاح الدين محمد مدبولى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Toka Mohamed Salah El Dine Mohamed Madbouly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حازم محمد عبد السلام لطفي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hazem mohamed abdelsalam lotfy</x:t>
+    <x:t>4220110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد الأمير سيد محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AHMED MOHAMMED ELAMIR SAYED MAHMOUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امير ميشيل فاروق مسعد بولس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amir Michel Farouk Mosaad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بيشوى كمال برسوم كمال ابو غالى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bishoy Kamal Barsoum Kamal</x:t>
   </x:si>
   <x:si>
     <x:t>1210099</x:t>
@@ -123,6 +87,15 @@
     <x:t>Khaled Ayman Abdelazem Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رنا عاطف سعد عرفه موسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana Atef saad arafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210242</x:t>
   </x:si>
   <x:si>
@@ -132,6 +105,33 @@
     <x:t>Seif el din motaz ahmed ezzat khattab</x:t>
   </x:si>
   <x:si>
+    <x:t>4220120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عاصم على محمد ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assem Ali Mohamed Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن تامر حنفي محمود محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Tamer Hanafy Mahmoud Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن عمرو إبراهيم محمد جميل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman amr</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210149</x:t>
   </x:si>
   <x:si>
@@ -141,6 +141,24 @@
     <x:t>Abdullah Amir Abdel monegan khafagy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن خالد محمد محمود جادالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdulrhman khalid mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمود سعدالدين احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdel Rahman Mahmoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210059</x:t>
   </x:si>
   <x:si>
@@ -150,33 +168,6 @@
     <x:t>abdelrahman hany ahmed raafat</x:t>
   </x:si>
   <x:si>
-    <x:t>1210251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن وائل عبدالرازق السيد موافى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman wael abdelrazek el seid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر تامر حسن على الموافى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Tamer Hassan Ali ElMowafy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر صبحى الليثى توفيق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Sobhy Ellethy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210268</x:t>
   </x:si>
   <x:si>
@@ -186,6 +177,15 @@
     <x:t>Omar Wael Mostafa Sayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم أشرف وجدى دسوقى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kareem Ashraf wagdy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220271</x:t>
   </x:si>
   <x:si>
@@ -204,13 +204,13 @@
     <x:t>Mohamed sherif alaa gamal eldin</x:t>
   </x:si>
   <x:si>
-    <x:t>1210290</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو هاني حسين سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed amr hany hussein sayed</x:t>
+    <x:t>4230172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عبدالعاطى محمد عبدالعاطى عطوة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Abdelaty Mohamed Abdelaty Atwa</x:t>
   </x:si>
   <x:si>
     <x:t>1210292</x:t>
@@ -231,15 +231,6 @@
     <x:t>Mahmoud Ahmed Abdel-Hamid Salman</x:t>
   </x:si>
   <x:si>
-    <x:t>1200264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود خالد محمد ابو العلا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Khaled Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210297</x:t>
   </x:si>
   <x:si>
@@ -258,22 +249,31 @@
     <x:t>Marwan Nezar Mohamed Abbas Ahmed Abdelshafy</x:t>
   </x:si>
   <x:si>
-    <x:t>4210425</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريام تامر صديق حنا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meriam Tamer Saddik Hanna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفي هيثم فوزي مصطفي المنسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Haytham Fawzy Mostafa Elmansy</x:t>
+    <x:t>1210083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى هانى عبد الفتاح محمود العطار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Hany Abdelfattah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصعب محمد عبد اللاه على عبد اللاه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mosaab Mohammed Abdella Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210311</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك ياسر سعد احمد سلام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>malak yasser saad ahmed sallam</x:t>
   </x:si>
   <x:si>
     <x:t>1210031</x:t>
@@ -285,24 +285,6 @@
     <x:t>Menna Tullah Medhat Abdelrazik Aly</x:t>
   </x:si>
   <x:si>
-    <x:t>1210419</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مينا عادل ماهر وصفى ناثان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mina Adel Maher Wasfi Nathan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220318</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور احمد شمس الدين محمد سالم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Ahmed Shamseldin Mohamed Salem</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220151</x:t>
   </x:si>
   <x:si>
@@ -310,33 +292,6 @@
   </x:si>
   <x:si>
     <x:t>Nourhan Essam Mohamed Ahmed Wahba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نيره محمد صلاح الدين فتح الله البيلي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Naira Mohamed Salah Eldin fathallah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>وليد اشرف ابراهيم عبدالنبى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WALEED ASHRAF IBRAHIM ABDELNABI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210338</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف سيد بدير احمد امين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef sayed bedier ahmed amin</x:t>
   </x:si>
   <x:si>
     <x:t>1210340</x:t>
@@ -461,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -852,7 +807,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6650521991</x:v>
+        <x:v>45906.4147820602</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -884,7 +839,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4147820602</x:v>
+        <x:v>45906.6647093403</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -916,7 +871,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6650118403</x:v>
+        <x:v>45906.6689769676</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -948,7 +903,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6647093403</x:v>
+        <x:v>45906.6710427431</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -980,7 +935,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6650357292</x:v>
+        <x:v>45906.6794722569</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1012,7 +967,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6649310995</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1044,7 +999,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.0243352199</x:v>
+        <x:v>45906.6759029745</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1076,7 +1031,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6649211458</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1108,7 +1063,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.023521956</x:v>
+        <x:v>45906.6670208333</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1140,7 +1095,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45906.6672116551</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1172,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45928.9334273958</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1236,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.0230001157</x:v>
+        <x:v>45906.6644226042</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1268,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45906.4160982639</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1300,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45912.0230001157</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6658026968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1460,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.0234185995</x:v>
+        <x:v>45906.7459977199</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1556,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6649344907</x:v>
+        <x:v>45906.6648501968</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6648501968</x:v>
+        <x:v>45927.9738076389</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.9738076389</x:v>
+        <x:v>45927.9740179745</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6771461458</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6646466435</x:v>
+        <x:v>45906.6757055208</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1748,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45926.4102671643</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1735,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.4146510417</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1798,181 +1753,18 @@
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
     </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45926.4102671643</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45906.6645776968</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45906.6775691319</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45912.0232952546</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45906.4148245023</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20108]20108-60-الجيزة الرئيسي Time : Wednesday(16:18)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20103]20103-60-الجيزة الرئيسي Time : Wednesday(12:14)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20108]20108-60-الجيزة الرئيسي Time : Wednesday(16:18)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20103]20103-60-الجيزة الرئيسي Time : Wednesday(12:14)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20108]20108-60-الجيزة الرئيسي Time : Wednesday(16:18)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20103]20103-60-الجيزة الرئيسي Time : Wednesday(12:14)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>
